--- a/Bases_de_Dados_(2006-2021)/China Chinese Super League_2011.xlsx
+++ b/Bases_de_Dados_(2006-2021)/China Chinese Super League_2011.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -23263,7 +23263,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -27618,7 +27618,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -28495,7 +28495,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -31542,7 +31542,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -32855,7 +32855,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -33722,7 +33722,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -36125,7 +36125,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -37864,7 +37864,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -40049,7 +40049,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -42011,7 +42011,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -45717,7 +45717,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I208" t="n">
@@ -47238,7 +47238,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -47897,7 +47897,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -50513,7 +50513,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I230" t="n">
@@ -52470,7 +52470,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
